--- a/personality and race-IAT study/data/processed/data_processed_codebook.xlsx
+++ b/personality and race-IAT study/data/processed/data_processed_codebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am21d065\GitHub\dpm-assignments\personality and race-IAT study\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BD2113-65B2-4667-8D14-B985088025EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E617CA8-D872-4785-B651-AFA82AF30558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="131">
   <si>
     <t>variable</t>
   </si>
@@ -40,9 +40,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>list</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
@@ -79,7 +76,7 @@
     <t>exclusion_incomplete_scale_a</t>
   </si>
   <si>
-    <t>mean_a</t>
+    <t>bfi_mean_a</t>
   </si>
   <si>
     <t>bfi_c1</t>
@@ -112,7 +109,7 @@
     <t>exclusion_incomplete_scale_c</t>
   </si>
   <si>
-    <t>mean_c</t>
+    <t>bfi_mean_c</t>
   </si>
   <si>
     <t>bfi_e1</t>
@@ -142,7 +139,7 @@
     <t>exclusion_incomplete_scale_e</t>
   </si>
   <si>
-    <t>mean_e</t>
+    <t>bfi_mean_e</t>
   </si>
   <si>
     <t>bfi_n1</t>
@@ -172,7 +169,7 @@
     <t>exclusion_incomplete_scale_n</t>
   </si>
   <si>
-    <t>mean_n</t>
+    <t>bfi_mean_n</t>
   </si>
   <si>
     <t>bfi_o1</t>
@@ -208,7 +205,7 @@
     <t>exclusion_incomplete_scale_o</t>
   </si>
   <si>
-    <t>mean_o</t>
+    <t>bfi_mean_o</t>
   </si>
   <si>
     <t>exclude_impossible_values</t>
@@ -227,6 +224,195 @@
   </si>
   <si>
     <t>exclude_participant</t>
+  </si>
+  <si>
+    <t>unique subject number for each participant</t>
+  </si>
+  <si>
+    <t>age of the participant (optional)</t>
+  </si>
+  <si>
+    <t>sex of the participant (optional)</t>
+  </si>
+  <si>
+    <t>second item for the agreeableness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>forth item for the agreeableness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>fifth item for the agreeableness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>seventh item for the agreeableness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>ninth item for the agreeableness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>first item for the conscientiousness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>third item for the conscientiousness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>sixth item for the conscientiousness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>seventh item for the conscientiousness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>mean of the agreeableness scale</t>
+  </si>
+  <si>
+    <t>mean of the conscientiousness scale</t>
+  </si>
+  <si>
+    <t>first item for the extroversion facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>third item for the extroversion facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>forth item for the extroversion facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>sixth item for the extroversion facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>eighth item for the extroversion facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>eighth item for the conscientiousness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>mean of the extroversion scale</t>
+  </si>
+  <si>
+    <t>first item for the neuroticism facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>third item for the neuroticism facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>forth item for the neuroticism facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>sixth item for the neuroticism facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>eighth item for the neuroticism facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>mean of the neuroticism scale</t>
+  </si>
+  <si>
+    <t>first item for the openness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>second item for the openness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>third item for the openness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>forth item for the openness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>fifth item for the openness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>sixth item for the openness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>eighth item for the openness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>tenth item for the openness facet of the bfi (scale 1-6)</t>
+  </si>
+  <si>
+    <t>mean of the openness scale</t>
+  </si>
+  <si>
+    <t>mark participants with incomplete data in completed agreeableness scale as excluded</t>
+  </si>
+  <si>
+    <t>mark participants with incomplete data in completed conscientiousness scale as excluded</t>
+  </si>
+  <si>
+    <t>mark participants with incomplete data in completed extroversion scale as excluded</t>
+  </si>
+  <si>
+    <t>mark participants with incomplete data in completed neuroticism scale as excluded</t>
+  </si>
+  <si>
+    <t>mark participants with incomplete data in completed openness scale as excluded</t>
+  </si>
+  <si>
+    <t>mark participants with impossible values (&lt; 1 and &gt; 6) in the bfi as excluded</t>
+  </si>
+  <si>
+    <t>Mark participants who have more or less than 120 trials in the critical IAT blocks (3, 4, 6, 7) as excluded</t>
+  </si>
+  <si>
+    <t>Mark participants with more than 10% of too fast critical IAT trials (&gt;300ms) as excluded</t>
+  </si>
+  <si>
+    <t>Mark participants with an accuracy below 75% in the critical IAT blocks as excluded</t>
+  </si>
+  <si>
+    <t>Mark participant as excluded if any of the exclusion criteria above are positive (master exclusion)</t>
+  </si>
+  <si>
+    <t>first item for the agreeableness facet of the bfi (scale 1-6) - recoded</t>
+  </si>
+  <si>
+    <t>third item for the agreeableness facet of the bfi (scale 1-6) - recoded</t>
+  </si>
+  <si>
+    <t>sixth item for the agreeableness facet of the bfi (scale 1-6) - recoded</t>
+  </si>
+  <si>
+    <t>eighth item for the agreeableness facet of the bfi (scale 1-6) - recoded</t>
+  </si>
+  <si>
+    <t>second item for the conscientiousness facet of the bfi (scale 1-6) - recoded</t>
+  </si>
+  <si>
+    <t>forth item for the conscientiousness facet of the bfi (scale 1-6) - recoded</t>
+  </si>
+  <si>
+    <t>fifth item for the conscientiousness facet of the bfi (scale 1-6) - recoded</t>
+  </si>
+  <si>
+    <t>ninth item for the conscientiousness facet of the bfi (scale 1-6) - recoded</t>
+  </si>
+  <si>
+    <t>second item for the extroversion facet of the bfi (scale 1-6) - recoded</t>
+  </si>
+  <si>
+    <t>fifth item for the extroversion facet of the bfi (scale 1-6) - recoded</t>
+  </si>
+  <si>
+    <t>seventh item for the extroversion facet of the bfi (scale 1-6) - recoded</t>
+  </si>
+  <si>
+    <t>second item for the neuroticism facet of the bfi (scale 1-6) - recoded</t>
+  </si>
+  <si>
+    <t>fifth item for the neuroticism facet of the bfi (scale 1-6) - recoded</t>
+  </si>
+  <si>
+    <t>seventh item for the neuroticism facet of the bfi (scale 1-6) - recoded</t>
+  </si>
+  <si>
+    <t>seventh item for the openness facet of the bfi (scale 1-6) - recoded</t>
+  </si>
+  <si>
+    <t>ninth item for the openness facet of the bfi (scale 1-6) - recoded</t>
+  </si>
+  <si>
+    <t>Greenwald's D-score (defined as: (mean RT of block 3 and 6 - mean RT of block 4 and 7) / SD of RTs in block 3, 4, 6, 7))</t>
   </si>
 </sst>
 </file>
@@ -562,9 +748,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.90625" customWidth="1"/>
+    <col min="2" max="2" width="104.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -581,6 +773,9 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -589,93 +784,129 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -683,87 +914,120 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -771,79 +1035,109 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -851,79 +1145,109 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>126</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -931,95 +1255,131 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -1027,15 +1387,21 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>103</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>109</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1043,15 +1409,21 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>110</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -1059,7 +1431,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>111</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -1067,7 +1442,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -1075,7 +1453,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>113</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
